--- a/ILabApplication/Res1/Report/Default.xlsx
+++ b/ILabApplication/Res1/Report/Default.xlsx
@@ -237,22 +237,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -560,11 +560,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="11.93359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.2265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.10546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.97265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.93359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.2265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.10546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.97265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -610,7 +610,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
@@ -629,9 +629,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="9.078125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="9.078125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -649,16 +649,16 @@
       </c>
     </row>
     <row>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>7</v>
       </c>
-      <c s="5" t="s">
+      <c s="7" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c s="3" t="s">
         <v>4</v>
       </c>
-      <c s="7" t="s">
+      <c s="6" t="s">
         <v>8</v>
       </c>
     </row>
